--- a/gene_ontology_analysis_miRNA/GO_results_compartments/compartment_go_analysis.xlsx
+++ b/gene_ontology_analysis_miRNA/GO_results_compartments/compartment_go_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/GO_results_compartments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B602E1-9839-A442-9724-2BF94BB67103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174CCBC5-A321-6643-9DD1-2B56F4B11336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="500" windowWidth="43180" windowHeight="26600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartment_A_Biological" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="1728">
   <si>
     <t>Rank</t>
   </si>
@@ -3891,9 +3891,6 @@
     <t>small GTPase mediated signal transduction (GO:0007264)</t>
   </si>
   <si>
-    <t>regulation of phosphatidylinositol 3-kinase signaling (GO:0014066)</t>
-  </si>
-  <si>
     <t>protein localization to nucleus (GO:0034504)</t>
   </si>
   <si>
@@ -4749,89 +4746,663 @@
     <t>Key Genes</t>
   </si>
   <si>
-    <t>RNA Processing &amp; Transcription</t>
-  </si>
-  <si>
-    <t>Maturation of LSU-rRNA, transcription initiation, RNA polymerase II activity</t>
-  </si>
-  <si>
-    <t>PES1, WDR12, TBP, NR6A1, RBPJ</t>
-  </si>
-  <si>
     <t>Neuronal Development</t>
   </si>
   <si>
     <t>Synapse assembly, neuron projection morphogenesis, filopodium assembly</t>
   </si>
   <si>
-    <t>GPM6A, NLGN1, FLRT1, CPLX2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Adhesion </t>
-  </si>
-  <si>
-    <t>Cell-cell adhesion, calcium-dependent adhesion, junction assembly</t>
-  </si>
-  <si>
-    <t>NLGN1, CDH12, JCAD</t>
-  </si>
-  <si>
     <t>Cardiac Development</t>
   </si>
   <si>
+    <t>RBPJ, SOX4</t>
+  </si>
+  <si>
+    <t>Immune System Regulation</t>
+  </si>
+  <si>
+    <t>Signal Transduction</t>
+  </si>
+  <si>
+    <t>SOX4, RBPJ, BCL6</t>
+  </si>
+  <si>
+    <t>Compartment B Genes</t>
+  </si>
+  <si>
+    <t>'1700025G04Rik' '3425401B19Rik' 'STUM' 'Abcg1' 'Abra' 'Abt1' 'Adora1' 'Aff4' 'Amph' 'Ankrd28' 'Ankrd33b' 'Aptx' 'Bach2' 'CDR1' 'Odad1' 'Ccdc88a' 'Ccl21d' 'Cdk6' 'Celf2' 'Colq' 'Cpeb2' 'Macir' 'Dap' 'Dolpp1' 'Dpp10' 'Dusp23' 'Ebf1' 'Ets1' 'Fam163b' 'Fam171a1' 'LRATD1' 'Fgf21' 'Fli1' 'Fzd7' 'Gabra1' 'Gm16387' 'Gm7293' 'Gng12' 'Gnl1' 'Gpr158' 'Gramd2a' 'H4c2' 'Hnrnph1' 'Hnrnpu' 'Ier5l' 'Ikzf2' 'Inhbb' 'Ino80d' 'Itk' 'Jcad' 'Klf7' 'Klhdc8a' 'Klhl20' 'MYB' 'Mars2' 'Mdm4' 'Mrrf' 'Nlrc3' 'Nr6a1' 'Nsmf' 'Pakap' 'Pappa' 'Pfkfb2' 'Pfn4' 'Phlpp1' 'Plxdc2' 'Ppp2ca' 'Proz' 'Ptchd4' 'Rnf152' 'SLY' 'Satb2' 'Sftpb' 'Skida1' 'Slc2a8' 'Sox4' 'Tbc1d24' 'Thnsl1' 'Thsd1' 'Tmem245' 'Tmem38b' 'Tpsb2' 'Uap1l1' 'Wdr12' 'Zbtb41' 'Zfp467'</t>
+  </si>
+  <si>
+    <t>T cell differentiation, inflammatory response regulation</t>
+  </si>
+  <si>
+    <t>CYP7A1</t>
+  </si>
+  <si>
+    <t>Cell Adhesion</t>
+  </si>
+  <si>
+    <t>Synaptic Function</t>
+  </si>
+  <si>
+    <t>NLGN1, CPLX2, SLC8A2</t>
+  </si>
+  <si>
+    <t>LY96, NMI, MAP4K4, MAP3K2</t>
+  </si>
+  <si>
+    <t>TBP, SCAF8, RBPJ</t>
+  </si>
+  <si>
+    <t>SLC8A2, CLCN3, ATP13A3</t>
+  </si>
+  <si>
+    <t>Developmental Processes</t>
+  </si>
+  <si>
+    <t>Lipid Metabolism</t>
+  </si>
+  <si>
+    <t>GPM6A, NLGN1, FLRT1, MAP4K4</t>
+  </si>
+  <si>
+    <t>Synaptic transmission modulation, synaptic vesicle cycle, neurotransmitter secretion</t>
+  </si>
+  <si>
+    <t>Cell junction assembly, calcium-dependent cell-cell adhesion, adherens junction organization</t>
+  </si>
+  <si>
+    <t>NLGN1, CDH12, CTNND1</t>
+  </si>
+  <si>
+    <t>Toll-like receptor signaling, NF-kappaB signaling, MAPK cascade</t>
+  </si>
+  <si>
+    <t>Transcription Regulation</t>
+  </si>
+  <si>
+    <t>Transcription initiation/termination, RNA polymerase II activity</t>
+  </si>
+  <si>
+    <t>Cardiac muscle cell proliferation, ventricular morphogenesis</t>
+  </si>
+  <si>
+    <t>BCL6, NMI, LY96</t>
+  </si>
+  <si>
+    <t>Ion Transport</t>
+  </si>
+  <si>
+    <t>Calcium ion homeostasis, chloride transport</t>
+  </si>
+  <si>
+    <t>Bile acid biosynthesis, cholesterol metabolism</t>
+  </si>
+  <si>
+    <t>RNA Processing</t>
+  </si>
+  <si>
+    <t>miRNA metabolism, mRNA 3'-end processing</t>
+  </si>
+  <si>
+    <t>LIN28B, SCAF8</t>
+  </si>
+  <si>
+    <t>Cell Cycle Regulation</t>
+  </si>
+  <si>
+    <t>Regulation of cell aging, cellular senescence</t>
+  </si>
+  <si>
+    <t>ING2, BCL6</t>
+  </si>
+  <si>
+    <t>Tissue morphogenesis, cell differentiation</t>
+  </si>
+  <si>
+    <t>Ion Transport &amp; Homeostasis</t>
+  </si>
+  <si>
+    <t>Solute:cation antiporter activity, calcium:sodium antiporter activity, voltage-gated channel activity</t>
+  </si>
+  <si>
+    <t>SLC8A2, CLCN3, KCNH7</t>
+  </si>
+  <si>
+    <t>RNA polymerase II binding, transcription initiation factor binding, DNA binding</t>
+  </si>
+  <si>
+    <t>TBP, SCAF8, RBPJ, MZF1, BCL6</t>
+  </si>
+  <si>
+    <t>RNA polymerase binding, mRNA binding, RNA 3'-end processing</t>
+  </si>
+  <si>
+    <t>SCAF8, RBM47, LIN28B, EWSR1</t>
+  </si>
+  <si>
+    <t>Protein Modification</t>
+  </si>
+  <si>
+    <t>Protein serine/threonine kinase activity, ubiquitin conjugating enzyme activity</t>
+  </si>
+  <si>
+    <t>MAP3K2, CDK19, DYRK1B, MAP4K4, UBE2E3</t>
+  </si>
+  <si>
+    <t>Enzyme Activity</t>
+  </si>
+  <si>
+    <t>Metalloaminopeptidase activity, metalloendopeptidase activity, steroid hydroxylase activity</t>
+  </si>
+  <si>
+    <t>MMP16, CYP7A1</t>
+  </si>
+  <si>
+    <t>Signaling</t>
+  </si>
+  <si>
+    <t>PDZ domain binding, ephrin receptor binding, phosphatidylinositol binding</t>
+  </si>
+  <si>
+    <t>NLGN1, CLCN3, CHN1, ING2, PLEKHB2</t>
+  </si>
+  <si>
+    <t>Cadherin binding</t>
+  </si>
+  <si>
+    <t>CTNND1, CDH12</t>
+  </si>
+  <si>
+    <t>GTPase Regulation</t>
+  </si>
+  <si>
+    <t>GTPase activator activity, guanyl-nucleotide exchange factor activity</t>
+  </si>
+  <si>
+    <t>CHN1, TBC1D8, ARHGEF4</t>
+  </si>
+  <si>
+    <t>Biological Process</t>
+  </si>
+  <si>
+    <t>Molecular Functions</t>
+  </si>
+  <si>
+    <t>Neuronal Development &amp; Synaptic Function</t>
+  </si>
+  <si>
+    <t>Synapse assembly, neuron projection morphogenesis, filopodium assembly, synaptic vesicle cycle</t>
+  </si>
+  <si>
+    <t>PDZ domain binding, neurexin binding, syntaxin-1 binding</t>
+  </si>
+  <si>
+    <t>NLGN1, GPM6A, FLRT1, CPLX2, SLC8A2</t>
+  </si>
+  <si>
+    <t>Calcium ion homeostasis, chloride transport, regulation of pH</t>
+  </si>
+  <si>
+    <t>SLC8A2, CLCN3, KCNH7, ATP13A3</t>
+  </si>
+  <si>
+    <t>Transcriptional Regulation</t>
+  </si>
+  <si>
+    <t>RNA polymerase II binding, transcription factor binding, DNA binding</t>
+  </si>
+  <si>
+    <t>Cell junction assembly, calcium-dependent cell-cell adhesion</t>
+  </si>
+  <si>
+    <t>CTNND1, CDH12, NLGN1</t>
+  </si>
+  <si>
+    <t>Protein serine/threonine kinase activity, phosphatidylinositol binding</t>
+  </si>
+  <si>
+    <t>LY96, NMI, MAP3K2, MAP4K4, ING2, PLEKHB2</t>
+  </si>
+  <si>
+    <t>RNA binding, mRNA binding</t>
+  </si>
+  <si>
+    <t>LIN28B, SCAF8, RBM47, EWSR1</t>
+  </si>
+  <si>
+    <t>Protein kinase activity, ubiquitin conjugating enzyme activity</t>
+  </si>
+  <si>
+    <t>ING2, CDK19, DYRK1B, MAP4K4, UBE2E3</t>
+  </si>
+  <si>
     <t>Cardiac ventricle morphogenesis, ventricular trabecula formation</t>
   </si>
   <si>
-    <t>RBPJ, SOX4</t>
-  </si>
-  <si>
-    <t>Immune System Regulation</t>
-  </si>
-  <si>
-    <t>T cell differentiation, B cell apoptotic process regulation</t>
-  </si>
-  <si>
-    <t>BCL6, SOX4, MYB, NLRC3</t>
-  </si>
-  <si>
-    <t>Membrane Transport</t>
-  </si>
-  <si>
-    <t>Fructose transport, dehydroascorbic acid transport</t>
-  </si>
-  <si>
-    <t>SLC2A8</t>
-  </si>
-  <si>
-    <t>Signal Transduction</t>
-  </si>
-  <si>
-    <t>Developmental Process</t>
-  </si>
-  <si>
-    <t>NF-kappaB signaling, phosphatidylinositol 3-kinase signaling</t>
-  </si>
-  <si>
-    <t>DAP, NLRC3, PPP2CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell differentiation, tissue morphogenesis	</t>
-  </si>
-  <si>
-    <t>SOX4, RBPJ, BCL6</t>
-  </si>
-  <si>
-    <t>Compartment B Genes</t>
-  </si>
-  <si>
-    <t>'1700025G04Rik' '3425401B19Rik' 'STUM' 'Abcg1' 'Abra' 'Abt1' 'Adora1' 'Aff4' 'Amph' 'Ankrd28' 'Ankrd33b' 'Aptx' 'Bach2' 'CDR1' 'Odad1' 'Ccdc88a' 'Ccl21d' 'Cdk6' 'Celf2' 'Colq' 'Cpeb2' 'Macir' 'Dap' 'Dolpp1' 'Dpp10' 'Dusp23' 'Ebf1' 'Ets1' 'Fam163b' 'Fam171a1' 'LRATD1' 'Fgf21' 'Fli1' 'Fzd7' 'Gabra1' 'Gm16387' 'Gm7293' 'Gng12' 'Gnl1' 'Gpr158' 'Gramd2a' 'H4c2' 'Hnrnph1' 'Hnrnpu' 'Ier5l' 'Ikzf2' 'Inhbb' 'Ino80d' 'Itk' 'Jcad' 'Klf7' 'Klhdc8a' 'Klhl20' 'MYB' 'Mars2' 'Mdm4' 'Mrrf' 'Nlrc3' 'Nr6a1' 'Nsmf' 'Pakap' 'Pappa' 'Pfkfb2' 'Pfn4' 'Phlpp1' 'Plxdc2' 'Ppp2ca' 'Proz' 'Ptchd4' 'Rnf152' 'SLY' 'Satb2' 'Sftpb' 'Skida1' 'Slc2a8' 'Sox4' 'Tbc1d24' 'Thnsl1' 'Thsd1' 'Tmem245' 'Tmem38b' 'Tpsb2' 'Uap1l1' 'Wdr12' 'Zbtb41' 'Zfp467'</t>
+    <t>Transcription factor activity</t>
+  </si>
+  <si>
+    <t>Steroid hydroxylase activity</t>
+  </si>
+  <si>
+    <t>Regulation of small GTPase mediated signal transduction</t>
+  </si>
+  <si>
+    <t>Immune Regulation</t>
+  </si>
+  <si>
+    <t>Cytokine binding</t>
+  </si>
+  <si>
+    <t>Negative regulation of cytokine production in inflammatory response, T cell activation, adaptive immune response, negative regulation of NF-kappaB activity</t>
+  </si>
+  <si>
+    <t>MACIR, NLRC3, ITK, GNL1, BACH2, DAP</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Cell Differentiation Control</t>
+  </si>
+  <si>
+    <t>Negative regulation of cell differentiation, regulation of stem cell proliferation, negative regulation of cell aging</t>
+  </si>
+  <si>
+    <t>PPP2CA, CDK6, MYB, HNRNPU, ABCG1, SOX4</t>
+  </si>
+  <si>
+    <t>Metabolic Regulation</t>
+  </si>
+  <si>
+    <t>Negative regulation of insulin secretion, glucose homeostasis, cholesterol metabolism, reverse cholesterol transport</t>
+  </si>
+  <si>
+    <t>KLF7, INHBB, ABCG1, PFKFB2, SLC2A8</t>
+  </si>
+  <si>
+    <t>Neural tube development, cardiac development, atrioventricular valve morphogenesis, glial cell development</t>
+  </si>
+  <si>
+    <t>MDM4, SOX4, CDK6, FZD7</t>
+  </si>
+  <si>
+    <t>RNA processing, mRNA stabilization, chromatin remodeling, regulation of transcription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA Processing &amp; Transcription		</t>
+  </si>
+  <si>
+    <t>HNRNPH1, CELF2, HNRNPU, ABT1, WDR12, SATB2, MYB</t>
+  </si>
+  <si>
+    <t>Cell Proliferation Control</t>
+  </si>
+  <si>
+    <t>Regulation of fibroblast proliferation, negative regulation of cell population proliferation</t>
+  </si>
+  <si>
+    <t>CDK6, NLRC3, MDM4, ETS1, SOX4</t>
+  </si>
+  <si>
+    <t>Signaling Pathways</t>
+  </si>
+  <si>
+    <t>JNK cascade, Wnt signaling, phosphatidylinositol 3-kinase signaling</t>
+  </si>
+  <si>
+    <t>PHLPP1, FZD7, NLRC3, PPP2CA</t>
+  </si>
+  <si>
+    <t>Lipid Transport &amp; Homeostasis</t>
+  </si>
+  <si>
+    <t>Phospholipid efflux, cholesterol storage regulation, lipid transport</t>
+  </si>
+  <si>
+    <t>ABCG1</t>
+  </si>
+  <si>
+    <t>Cellular Structure</t>
+  </si>
+  <si>
+    <t>Stress fiber assembly, focal adhesion assembly, cilium assembly</t>
+  </si>
+  <si>
+    <t>CCDC88A, FAM171A1, THSD1, TBC1D24</t>
+  </si>
+  <si>
+    <t>Neuronal Function</t>
+  </si>
+  <si>
+    <t>Synaptic vesicle recycling, neuromuscular synaptic transmission</t>
+  </si>
+  <si>
+    <t>TBC1D24, AMPH, GABRA1</t>
+  </si>
+  <si>
+    <t>Transcription factor activity, DNA binding, chromatin binding, sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>SATB2, EBF1, IKZF2, ETS1, BACH2, FLI1, KLF7, NR6A1, MYB, SOX4</t>
+  </si>
+  <si>
+    <t>RNA binding, mRNA binding, poly(A) RNA binding</t>
+  </si>
+  <si>
+    <t>HNRNPH1, CELF2, HNRNPU, CPEB2</t>
+  </si>
+  <si>
+    <t>Immune System Function</t>
+  </si>
+  <si>
+    <t>Immune receptor activity, cytokine binding, T cell receptor binding</t>
+  </si>
+  <si>
+    <t>GNL1, ITK, NLRC3</t>
+  </si>
+  <si>
+    <t>Signaling Pathway Regulation</t>
+  </si>
+  <si>
+    <t>Wnt-protein binding, phosphatase activity, kinase activity</t>
+  </si>
+  <si>
+    <t>FZD7, PHLPP1, PPP2CA, CDK6, ITK</t>
+  </si>
+  <si>
+    <t>Lipid Transport &amp; Metabolism</t>
+  </si>
+  <si>
+    <t>Phospholipid transporter activity, sterol transporter activity, cholesterol binding</t>
+  </si>
+  <si>
+    <t>Cytoskeletal Organization</t>
+  </si>
+  <si>
+    <t>Actin binding, cytoskeletal protein binding</t>
+  </si>
+  <si>
+    <t>ABRA, PFN4, CCDC88A, FAM171A1</t>
+  </si>
+  <si>
+    <t>Cell adhesion molecule binding, integrin binding</t>
+  </si>
+  <si>
+    <t>THSD1, JCAD</t>
+  </si>
+  <si>
+    <t>Enzyme Regulation</t>
+  </si>
+  <si>
+    <t>GTPase regulator activity, enzyme binding</t>
+  </si>
+  <si>
+    <t>CPEB2, PPP2CA</t>
+  </si>
+  <si>
+    <t>DNA Repair</t>
+  </si>
+  <si>
+    <t>DNA binding, damaged DNA binding</t>
+  </si>
+  <si>
+    <t>APTX, MDM4</t>
+  </si>
+  <si>
+    <t>Chromatin remodeling, regulation of transcription, regulation of gene expression</t>
+  </si>
+  <si>
+    <t>Transcription factor activity, chromatin binding</t>
+  </si>
+  <si>
+    <t>RNA processing, mRNA stabilization, chromatin remodeling</t>
+  </si>
+  <si>
+    <t>HNRNPH1, CELF2, HNRNPU, CPEB2, ABT1, WDR12</t>
+  </si>
+  <si>
+    <t>PHLPP1, FZD7, NLRC3, PPP2CA, ITK</t>
+  </si>
+  <si>
+    <t>Transcription factor activity, DNA binding</t>
+  </si>
+  <si>
+    <t>Enzyme binding, kinase activity</t>
+  </si>
+  <si>
+    <t>CCDC88A, FAM171A1, THSD1, TBC1D24, ABRA, PFN4</t>
+  </si>
+  <si>
+    <t>GABA receptor activity, ion channel activity</t>
+  </si>
+  <si>
+    <t>TBC1D24, AMPH, GABRA1, NSMF</t>
+  </si>
+  <si>
+    <t>The most significant enrichments are in ion transport (particularly for calcium and chloride ions) and transcription regulation (especially involving RNA polymerase II).</t>
+  </si>
+  <si>
+    <t>importance in transcriptional regulation and ion homeostasis.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The most significant enrichments are in neuronal development, synaptic function, and cell adhesion processes, suggesting that genes in Compartment A are predominantly involved in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>neural functions and cell-cell interactions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The high enrichment scores for antiporter activities (Z-score: 125.4) and RNA polymerase II binding (Z-score: 24.2) suggest these are particularly important molecular functions of genes in Compartment A. This aligns with the biological processes we observed earlier, as many of these molecular functions </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>support neuronal development, synaptic transmission, and cell adhesion processes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This integrated table highlights how the molecular functions of Compartment A genes support their biological roles. For example, the ion transport functions (antiporter activities) directly enable calcium homeostasis processes, while DNA-binding functions support the transcriptional regulation activities. The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>most significant enrichments are in neuronal development/synaptic function and ion transport, suggesting these are primary functions of genes in Compartment A.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The most prominent categories include </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>immune regulation (particularly negative regulation of inflammatory responses), cell differentiation control, and metabolic regulation (especially related to insulin, glucose, and cholesterol).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compared to Compartment A genes, Compartment B shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stronger enrichment in immune system processes, metabolic regulation, and cell differentiation control.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This suggests that Compartment B genes may play important roles in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regulating immune responses, cellular differentiation, and metabolic homeostasis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The most significant enrichments are in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transcriptional regulation (with numerous transcription factors) and signaling pathway regulation (particularly Wnt signaling and phosphatase activity).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Compared to Compartment A genes, Compartment B shows stronger enrichment in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transcription factor activity and immune-related functions.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aligns with the biological processes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> we observed earlier, highlighting Compartment B's importance in r</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egulating gene expression, immune responses, and cellular differentiation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The most significant enrichments are in transcriptional regulation, immune system regulation, cell differentiation control, and metabolic regulation. Compared to Compartment A genes, Compartment B shows stronger enrichment in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>immune-related functions, metabolic regulation (especially lipid and glucose metabolism), and cell differentiation control.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4845,8 +5416,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4862,6 +5441,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4893,16 +5484,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4914,6 +5502,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5217,10 +5827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N472"/>
+  <dimension ref="A1:P472"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5233,10 +5843,11 @@
     <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5265,7 +5876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5294,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5323,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5352,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5381,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5410,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5439,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5468,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5497,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5526,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5555,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5583,11 +6194,11 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="395" x14ac:dyDescent="0.2">
+      <c r="L12" s="4" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="395" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5615,11 +6226,17 @@
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L13" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5648,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5677,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5705,17 +6322,17 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5743,17 +6360,17 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>1575</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="N17" s="5" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5781,14 +6398,14 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>1577</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>1579</v>
+      <c r="L18" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="64" x14ac:dyDescent="0.2">
@@ -5819,17 +6436,17 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>1580</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>1581</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="L19" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5857,17 +6474,17 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>1583</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>1584</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="L20" s="5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5895,13 +6512,13 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>1586</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>1587</v>
-      </c>
-      <c r="N21" s="4" t="s">
+      <c r="L21" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>1588</v>
       </c>
     </row>
@@ -5933,14 +6550,14 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>1589</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>1590</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>1591</v>
+      <c r="L22" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -5971,17 +6588,17 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>1592</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>1594</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="L23" s="5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6009,17 +6626,17 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>1593</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>1596</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L24" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6047,8 +6664,17 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L25" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6076,8 +6702,17 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L26" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>1605</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6105,11 +6740,17 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L27" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6137,9 +6778,15 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="L28" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>1579</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -6265,9 +6912,9 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -19036,10 +19683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19052,9 +19699,16 @@
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19083,7 +19737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -19112,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -19141,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -19170,7 +19824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -19199,7 +19853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -19228,7 +19882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -19257,7 +19911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -19286,7 +19940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -19315,7 +19969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -19344,7 +19998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="395" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -19372,8 +20026,20 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L11" s="14" t="s">
+        <v>1718</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>1721</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -19402,7 +20068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -19431,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -19460,7 +20126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -19488,8 +20154,29 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L15" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>1632</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>1633</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -19517,8 +20204,29 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L16" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>1635</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>1636</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -19546,8 +20254,29 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L17" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>1615</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>1611</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>1638</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>1612</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -19575,8 +20304,29 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L18" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>1598</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>1641</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -19604,8 +20354,29 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L19" s="5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>1619</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>1584</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>1642</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>1627</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -19633,8 +20404,29 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L20" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>1578</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>1596</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -19662,8 +20454,29 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L21" s="5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>1625</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>1605</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>1646</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -19691,8 +20504,29 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L22" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>1618</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>1608</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>1648</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -19720,8 +20554,29 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L23" s="5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>1575</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>1650</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>1651</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -19749,8 +20604,23 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="P24" s="10" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>1603</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>1652</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -19778,8 +20648,23 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="P25" s="10" t="s">
+        <v>1629</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="80" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -19807,8 +20692,23 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="P26" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -19836,8 +20736,11 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -19866,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -19895,7 +20798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -19924,7 +20827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -19953,7 +20856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -21932,10 +22835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K700"/>
+  <dimension ref="A1:O700"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21948,9 +22851,12 @@
     <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21979,7 +22885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -22008,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -22037,7 +22943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -22066,7 +22972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -22095,7 +23001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -22124,7 +23030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -22153,7 +23059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -22182,7 +23088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -22211,7 +23117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -22240,7 +23146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -22269,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -22298,7 +23204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -22327,7 +23233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -22356,7 +23262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -22384,11 +23290,11 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="272" x14ac:dyDescent="0.2">
+      <c r="K15" s="7" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -22416,11 +23322,17 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -22449,7 +23361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -22477,8 +23389,17 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M18" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>1632</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -22506,8 +23427,17 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M19" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -22535,8 +23465,17 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M20" s="5" t="s">
+        <v>1659</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -22564,8 +23503,17 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M21" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -22593,8 +23541,17 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M22" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -22622,8 +23579,17 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M23" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>1667</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -22651,8 +23617,17 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M24" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -22680,8 +23655,17 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M25" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -22709,8 +23693,17 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M26" s="5" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -22738,8 +23731,17 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M27" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -22767,8 +23769,17 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M28" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -22796,8 +23807,11 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -22825,8 +23839,11 @@
       <c r="I30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -22854,8 +23871,11 @@
       <c r="I31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -22883,8 +23903,11 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -22912,8 +23935,11 @@
       <c r="I33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -22941,8 +23967,11 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -22970,8 +23999,11 @@
       <c r="I35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -22999,8 +24031,11 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -23028,8 +24063,11 @@
       <c r="I37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -23057,8 +24095,11 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -23086,8 +24127,11 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -23115,8 +24159,11 @@
       <c r="I40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -23144,8 +24191,11 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -23173,8 +24223,11 @@
       <c r="I42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -23203,7 +24256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -23232,7 +24285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -23261,7 +24314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -23290,7 +24343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -23319,7 +24372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -38491,7 +39544,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1288</v>
+        <v>1658</v>
       </c>
       <c r="C571" s="2">
         <v>0.36744479460287721</v>
@@ -38520,7 +39573,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C572" s="2">
         <v>0.36744479460287721</v>
@@ -38549,7 +39602,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C573" s="2">
         <v>0.37061664038432268</v>
@@ -38578,7 +39631,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C574" s="2">
         <v>0.37561321786777319</v>
@@ -38607,7 +39660,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C575" s="2">
         <v>0.37561321786777319</v>
@@ -38636,7 +39689,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C576" s="2">
         <v>0.37831278895769549</v>
@@ -38665,7 +39718,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C577" s="2">
         <v>0.38100082335152902</v>
@@ -38723,7 +39776,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C579" s="2">
         <v>0.38367736990003659</v>
@@ -38752,7 +39805,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C580" s="2">
         <v>0.38367736990003659</v>
@@ -38781,7 +39834,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C581" s="2">
         <v>0.38367736990003659</v>
@@ -38810,7 +39863,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C582" s="2">
         <v>0.38634247703342578</v>
@@ -38839,7 +39892,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C583" s="2">
         <v>0.38634247703342578</v>
@@ -38926,7 +39979,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C586" s="2">
         <v>0.3916385661993983</v>
@@ -38967,7 +40020,7 @@
         <v>1.4005894430425549</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G587" s="2">
         <v>0.46768158364514351</v>
@@ -38984,7 +40037,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C588" s="2">
         <v>0.39426964426833688</v>
@@ -39013,7 +40066,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C589" s="2">
         <v>0.39426964426833688</v>
@@ -39042,7 +40095,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C590" s="2">
         <v>0.39426964426833688</v>
@@ -39083,7 +40136,7 @@
         <v>1.1733500063620881</v>
       </c>
       <c r="F591" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G591" s="2">
         <v>0.46945065696088578</v>
@@ -39100,7 +40153,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C592" s="2">
         <v>0.39949810595437002</v>
@@ -39129,7 +40182,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C593" s="2">
         <v>0.40209558442117588</v>
@@ -39158,7 +40211,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C594" s="2">
         <v>0.40468195750307318</v>
@@ -39199,7 +40252,7 @@
         <v>1.3110433396970771</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G595" s="2">
         <v>0.477418748766962</v>
@@ -39216,7 +40269,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C596" s="2">
         <v>0.41237491284960359</v>
@@ -39274,7 +40327,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C598" s="2">
         <v>0.41491733178297202</v>
@@ -39303,7 +40356,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C599" s="2">
         <v>0.41744887800893699</v>
@@ -39332,7 +40385,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C600" s="2">
         <v>0.41744887800893699</v>
@@ -39419,7 +40472,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C603" s="2">
         <v>0.4199695974564232</v>
@@ -39477,7 +40530,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C605" s="2">
         <v>0.42746725210909092</v>
@@ -39506,7 +40559,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C606" s="2">
         <v>0.42994512028677301</v>
@@ -39535,7 +40588,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C607" s="2">
         <v>0.42994512028677301</v>
@@ -39564,7 +40617,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C608" s="2">
         <v>0.43731530489265158</v>
@@ -39593,7 +40646,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C609" s="2">
         <v>0.43731530489265158</v>
@@ -39622,7 +40675,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C610" s="2">
         <v>0.44459129471728848</v>
@@ -39663,7 +40716,7 @@
         <v>1.0818249925709871</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G611" s="2">
         <v>0.51071558338692546</v>
@@ -39680,7 +40733,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C612" s="2">
         <v>0.45177427951627519</v>
@@ -39738,7 +40791,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C614" s="2">
         <v>0.45177427951627519</v>
@@ -39808,7 +40861,7 @@
         <v>1.3211203449461471</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G616" s="2">
         <v>0.51534018235179235</v>
@@ -39825,7 +40878,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C617" s="2">
         <v>0.45414814353176552</v>
@@ -39883,7 +40936,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C619" s="2">
         <v>0.46354242803422679</v>
@@ -39912,7 +40965,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C620" s="2">
         <v>0.46817946457485421</v>
@@ -39941,7 +40994,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C621" s="2">
         <v>0.47575814132080002</v>
@@ -39953,7 +41006,7 @@
         <v>0.93682529562073724</v>
       </c>
       <c r="F621" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G621" s="2">
         <v>0.53637893674715997</v>
@@ -39970,7 +41023,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C622" s="2">
         <v>0.47733501315461407</v>
@@ -40028,7 +41081,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C624" s="2">
         <v>0.48409927612650661</v>
@@ -40098,7 +41151,7 @@
         <v>0.8588261268205194</v>
       </c>
       <c r="F626" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G626" s="2">
         <v>0.5520442054595196</v>
@@ -40144,7 +41197,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C628" s="2">
         <v>0.49518128300875358</v>
@@ -40173,7 +41226,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C629" s="2">
         <v>0.49736928364314881</v>
@@ -40231,7 +41284,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C631" s="2">
         <v>0.50387720295981175</v>
@@ -40260,7 +41313,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C632" s="2">
         <v>0.50816947512276656</v>
@@ -40289,7 +41342,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C633" s="2">
         <v>0.50816947512276656</v>
@@ -40359,7 +41412,7 @@
         <v>0.91869919847963877</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G635" s="2">
         <v>0.569612463043488</v>
@@ -40434,7 +41487,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C638" s="2">
         <v>0.5229053884453303</v>
@@ -40463,7 +41516,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C639" s="2">
         <v>0.52497458173832157</v>
@@ -40533,7 +41586,7 @@
         <v>0.72962546459429189</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G641" s="2">
         <v>0.57626432645351833</v>
@@ -40550,7 +41603,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C642" s="2">
         <v>0.53720477366002306</v>
@@ -40608,7 +41661,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C644" s="2">
         <v>0.53720477366002306</v>
@@ -40637,7 +41690,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C645" s="2">
         <v>0.54121193203407536</v>
@@ -40666,7 +41719,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C646" s="2">
         <v>0.55108041457870227</v>
@@ -40695,7 +41748,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C647" s="2">
         <v>0.55108041457870227</v>
@@ -40707,7 +41760,7 @@
         <v>0.75170106297635486</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G647" s="2">
         <v>0.59629289441255873</v>
@@ -40765,7 +41818,7 @@
         <v>0.61134618726162593</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G649" s="2">
         <v>0.60796265922595771</v>
@@ -40927,7 +41980,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C655" s="2">
         <v>0.58490074412983772</v>
@@ -40985,7 +42038,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C657" s="2">
         <v>0.5884994497040088</v>
@@ -41014,7 +42067,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C658" s="2">
         <v>0.59206731584825845</v>
@@ -41043,7 +42096,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C659" s="2">
         <v>0.59560460376375324</v>
@@ -41084,7 +42137,7 @@
         <v>0.51806108344767421</v>
       </c>
       <c r="F660" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G660" s="2">
         <v>0.63263888486716546</v>
@@ -41217,7 +42270,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C665" s="2">
         <v>0.62118537249021955</v>
@@ -41246,7 +42299,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C666" s="2">
         <v>0.6277323978801912</v>
@@ -41275,7 +42328,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C667" s="2">
         <v>0.63096384462037636</v>
@@ -41287,7 +42340,7 @@
         <v>0.46571151896955693</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G667" s="2">
         <v>0.6622278189033679</v>
@@ -41304,7 +42357,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C668" s="2">
         <v>0.64361470159999401</v>
@@ -41333,7 +42386,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C669" s="2">
         <v>0.64670984434551437</v>
@@ -41362,7 +42415,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C670" s="2">
         <v>0.65583674633537725</v>
@@ -41403,7 +42456,7 @@
         <v>0.361729373937558</v>
       </c>
       <c r="F671" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G671" s="2">
         <v>0.69246891713284175</v>
@@ -41490,7 +42543,7 @@
         <v>0.31912784474311362</v>
       </c>
       <c r="F674" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G674" s="2">
         <v>0.71231489877243548</v>
@@ -41507,7 +42560,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C675" s="2">
         <v>0.68735192974974013</v>
@@ -41606,7 +42659,7 @@
         <v>0.27395981511969192</v>
       </c>
       <c r="F678" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G678" s="2">
         <v>0.73540799459303752</v>
@@ -41623,7 +42676,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C679" s="2">
         <v>0.72577625288868397</v>
@@ -41710,7 +42763,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C682" s="2">
         <v>0.7443205436408642</v>
@@ -41739,7 +42792,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C683" s="2">
         <v>0.7443205436408642</v>
@@ -41768,7 +42821,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C684" s="2">
         <v>0.75203863813231098</v>
@@ -41797,7 +42850,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C685" s="2">
         <v>0.76679055357793169</v>
@@ -41826,7 +42879,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C686" s="2">
         <v>0.77679318290228583</v>
@@ -41884,7 +42937,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C688" s="2">
         <v>0.78543230094752903</v>
@@ -41983,7 +43036,7 @@
         <v>0.12951890310462769</v>
       </c>
       <c r="F691" s="2" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G691" s="2">
         <v>0.83423193911324467</v>
@@ -42058,7 +43111,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C694" s="2">
         <v>0.8394510740131842</v>
@@ -42087,7 +43140,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C695" s="2">
         <v>0.84294639905953828</v>
@@ -42128,7 +43181,7 @@
         <v>7.8975325244163619E-2</v>
       </c>
       <c r="F696" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G696" s="2">
         <v>0.86238833380024993</v>
@@ -42263,10 +43316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -42278,9 +43331,16 @@
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="17" max="17" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="19" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -42309,12 +43369,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C2" s="2">
         <v>1.172875914050852E-3</v>
@@ -42326,7 +43386,7 @@
         <v>319.80498461091372</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G2" s="2">
         <v>0.16068400022496671</v>
@@ -42338,7 +43398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -42355,7 +43415,7 @@
         <v>25.899283591000891</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G3" s="2">
         <v>0.1636829076788322</v>
@@ -42367,12 +43427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C4" s="2">
         <v>5.1413941977667991E-3</v>
@@ -42396,12 +43456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C5" s="2">
         <v>5.8821747888027787E-3</v>
@@ -42413,7 +43473,7 @@
         <v>44.895866254502657</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G5" s="2">
         <v>0.1636829076788322</v>
@@ -42425,12 +43485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C6" s="2">
         <v>6.8810180544998673E-3</v>
@@ -42454,12 +43514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C7" s="2">
         <v>7.1685944968831608E-3</v>
@@ -42471,7 +43531,7 @@
         <v>27.486806585141739</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G7" s="2">
         <v>0.1636829076788322</v>
@@ -42483,7 +43543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -42500,7 +43560,7 @@
         <v>11.126388653020291</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G8" s="2">
         <v>0.17249504845275751</v>
@@ -42512,7 +43572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -42529,7 +43589,7 @@
         <v>11.126388653020291</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G9" s="2">
         <v>0.17249504845275751</v>
@@ -42541,12 +43601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="335" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C10" s="2">
         <v>2.1317850552148701E-2</v>
@@ -42569,13 +43629,22 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L10" s="14" t="s">
+        <v>1725</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>1726</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C11" s="2">
         <v>2.1317850552148701E-2</v>
@@ -42599,12 +43668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C12" s="2">
         <v>2.1317850552148701E-2</v>
@@ -42628,12 +43697,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C13" s="2">
         <v>2.5527220063161049E-2</v>
@@ -42657,12 +43726,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C14" s="2">
         <v>2.5527220063161049E-2</v>
@@ -42685,13 +43754,34 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L14" s="11" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>1633</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>1572</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>1632</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>1633</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C15" s="2">
         <v>2.5527220063161049E-2</v>
@@ -42714,13 +43804,34 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L15" s="5" t="s">
+        <v>1640</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>1708</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>1685</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="224" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C16" s="2">
         <v>2.925390230298637E-2</v>
@@ -42732,7 +43843,7 @@
         <v>27.825083994677581</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="G16" s="2">
         <v>0.18573009468949661</v>
@@ -42743,13 +43854,34 @@
       <c r="I16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L16" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>1690</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="160" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C17" s="2">
         <v>2.971869594543344E-2</v>
@@ -42772,13 +43904,34 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L17" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>1709</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="176" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C18" s="2">
         <v>2.971869594543344E-2</v>
@@ -42801,13 +43954,34 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L18" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>1662</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>1663</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>1696</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C19" s="2">
         <v>2.971869594543344E-2</v>
@@ -42830,8 +44004,29 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L19" s="5" t="s">
+        <v>1695</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>1604</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>1710</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>1687</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -42848,7 +44043,7 @@
         <v>27.138876377223241</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G20" s="2">
         <v>0.18573009468949661</v>
@@ -42859,8 +44054,29 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L20" s="5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>1673</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>1674</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="144" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -42877,7 +44093,7 @@
         <v>7.0227985426462869</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G21" s="2">
         <v>0.18573009468949661</v>
@@ -42888,8 +44104,29 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L21" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>1701</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>1590</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>1665</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>1713</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -42917,13 +44154,34 @@
       <c r="I22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L22" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>1671</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>1714</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C23" s="2">
         <v>3.3892353045528567E-2</v>
@@ -42946,13 +44204,34 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L23" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>1707</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>1679</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>1680</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>1698</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C24" s="2">
         <v>3.3892353045528567E-2</v>
@@ -42975,13 +44254,28 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="Q24" s="10" t="s">
+        <v>1682</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>1683</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>1716</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C25" s="2">
         <v>3.3892353045528567E-2</v>
@@ -43004,13 +44298,16 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C26" s="2">
         <v>3.3892353045528567E-2</v>
@@ -43033,13 +44330,16 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C27" s="2">
         <v>3.94459256583925E-2</v>
@@ -43051,7 +44351,7 @@
         <v>21.512051262221821</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G27" s="2">
         <v>0.1974520195202383</v>
@@ -43062,13 +44362,16 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C28" s="2">
         <v>4.1424795353283327E-2</v>
@@ -43080,7 +44383,7 @@
         <v>20.603808508753229</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G28" s="2">
         <v>0.1974520195202383</v>
@@ -43091,13 +44394,16 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C29" s="2">
         <v>4.2186509218475401E-2</v>
@@ -43120,13 +44426,16 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C30" s="2">
         <v>4.5492008949183281E-2</v>
@@ -43138,7 +44447,7 @@
         <v>18.955060695009969</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G30" s="2">
         <v>0.1974520195202383</v>
@@ -43149,13 +44458,16 @@
       <c r="I30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C31" s="2">
         <v>4.6307156800613238E-2</v>
@@ -43178,13 +44490,16 @@
       <c r="I31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C32" s="2">
         <v>4.6307156800613238E-2</v>
@@ -43207,13 +44522,16 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C33" s="2">
         <v>4.6307156800613238E-2</v>
@@ -43236,8 +44554,11 @@
       <c r="I33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -43265,13 +44586,16 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C35" s="2">
         <v>5.0410282578844209E-2</v>
@@ -43294,13 +44618,16 @@
       <c r="I35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C36" s="2">
         <v>5.4495960127867393E-2</v>
@@ -43323,13 +44650,16 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C37" s="2">
         <v>5.4495960127867393E-2</v>
@@ -43352,13 +44682,16 @@
       <c r="I37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C38" s="2">
         <v>5.4495960127867393E-2</v>
@@ -43381,13 +44714,16 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C39" s="2">
         <v>5.8564262703548892E-2</v>
@@ -43410,8 +44746,11 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -43428,7 +44767,7 @@
         <v>14.78513650287608</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G40" s="2">
         <v>0.1974520195202383</v>
@@ -43439,8 +44778,11 @@
       <c r="I40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -43457,7 +44799,7 @@
         <v>6.2496159222741428</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G41" s="2">
         <v>0.1974520195202383</v>
@@ -43468,13 +44810,16 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C42" s="2">
         <v>6.1951912727547888E-2</v>
@@ -43486,7 +44831,7 @@
         <v>14.268335220264349</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G42" s="2">
         <v>0.1974520195202383</v>
@@ -43497,13 +44842,16 @@
       <c r="I42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C43" s="2">
         <v>6.2615263272598337E-2</v>
@@ -43526,13 +44874,16 @@
       <c r="I43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C44" s="2">
         <v>6.2615263272598337E-2</v>
@@ -43555,8 +44906,11 @@
       <c r="I44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -43573,7 +44927,7 @@
         <v>9.3988690964919623</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G45" s="2">
         <v>0.1974520195202383</v>
@@ -43584,13 +44938,16 @@
       <c r="I45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C46" s="2">
         <v>6.5455178175553089E-2</v>
@@ -43602,7 +44959,7 @@
         <v>13.542435321821049</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G46" s="2">
         <v>0.19927465355668381</v>
@@ -43613,13 +44970,16 @@
       <c r="I46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C47" s="2">
         <v>7.0665648813539497E-2</v>
@@ -43642,13 +45002,16 @@
       <c r="I47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C48" s="2">
         <v>7.4665178270937438E-2</v>
@@ -43671,13 +45034,16 @@
       <c r="I48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C49" s="2">
         <v>7.4665178270937438E-2</v>
@@ -43700,13 +45066,16 @@
       <c r="I49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C50" s="2">
         <v>7.4665178270937438E-2</v>
@@ -43729,13 +45098,16 @@
       <c r="I50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C51" s="2">
         <v>7.5109365958495183E-2</v>
@@ -43747,7 +45119,7 @@
         <v>11.855505132619509</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G51" s="2">
         <v>0.20209438363572951</v>
@@ -43758,13 +45130,16 @@
       <c r="I51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C52" s="2">
         <v>7.8647694651203887E-2</v>
@@ -43787,13 +45162,16 @@
       <c r="I52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C53" s="2">
         <v>7.8647694651203887E-2</v>
@@ -43817,7 +45195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -43834,7 +45212,7 @@
         <v>5.003558999894242</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G54" s="2">
         <v>0.20209438363572951</v>
@@ -43846,12 +45224,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C55" s="2">
         <v>8.6561973935644729E-2</v>
@@ -43875,12 +45253,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C56" s="2">
         <v>8.6561973935644729E-2</v>
@@ -43904,12 +45282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C57" s="2">
         <v>9.0493878944127304E-2</v>
@@ -43933,12 +45311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C58" s="2">
         <v>9.0493878944127304E-2</v>
@@ -43962,12 +45340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C59" s="2">
         <v>9.0493878944127304E-2</v>
@@ -43991,12 +45369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C60" s="2">
         <v>9.0493878944127304E-2</v>
@@ -44020,12 +45398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C61" s="2">
         <v>9.0493878944127304E-2</v>
@@ -44049,12 +45427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C62" s="2">
         <v>9.0493878944127304E-2</v>
@@ -44066,7 +45444,7 @@
         <v>26.77445193987873</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G62" s="2">
         <v>0.20209438363572951</v>
@@ -44078,7 +45456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -44107,7 +45485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -44141,7 +45519,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C65" s="2">
         <v>9.4409055129099903E-2</v>
@@ -44170,7 +45548,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C66" s="2">
         <v>0.1021895020267239</v>
@@ -44211,7 +45589,7 @@
         <v>6.1762889768658917</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G67" s="2">
         <v>0.21649540739930481</v>
@@ -44228,7 +45606,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C68" s="2">
         <v>0.10605491252536189</v>
@@ -44257,7 +45635,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C69" s="2">
         <v>0.1099038737594078</v>
@@ -44286,7 +45664,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C70" s="2">
         <v>0.11373645491494561</v>
@@ -44327,7 +45705,7 @@
         <v>5.5183094989149692</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G71" s="2">
         <v>0.2307640950508682</v>
@@ -44344,7 +45722,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C72" s="2">
         <v>0.1213527522063147</v>
@@ -44402,7 +45780,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C74" s="2">
         <v>0.1289043520533302</v>
@@ -44431,7 +45809,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C75" s="2">
         <v>0.1289043520533302</v>
@@ -44443,7 +45821,7 @@
         <v>15.458822023817969</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G75" s="2">
         <v>0.23652754773383389</v>
@@ -44530,7 +45908,7 @@
         <v>4.146960349583857</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G78" s="2">
         <v>0.23652754773383389</v>
@@ -44547,7 +45925,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C79" s="2">
         <v>0.13639179759834219</v>
@@ -44576,7 +45954,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C80" s="2">
         <v>0.13639179759834219</v>
@@ -44605,7 +45983,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C81" s="2">
         <v>0.14011163097102511</v>
@@ -44646,7 +46024,7 @@
         <v>4.5181305218489207</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G82" s="2">
         <v>0.2451690810646609</v>
@@ -44663,7 +46041,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C83" s="2">
         <v>0.15117637569644821</v>
@@ -44692,7 +46070,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C84" s="2">
         <v>0.1584745722036878</v>
@@ -44721,7 +46099,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C85" s="2">
         <v>0.16930573029517201</v>
@@ -44750,7 +46128,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C86" s="2">
         <v>0.17288540678205491</v>
@@ -44791,7 +46169,7 @@
         <v>3.6928951286266138</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G87" s="2">
         <v>0.27470031309236981</v>
@@ -44808,7 +46186,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C88" s="2">
         <v>0.17644983614692361</v>
@@ -44837,7 +46215,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C89" s="2">
         <v>0.17644983614692361</v>
@@ -44866,7 +46244,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C90" s="2">
         <v>0.18705228184831871</v>
@@ -44907,7 +46285,7 @@
         <v>2.821961412202465</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G91" s="2">
         <v>0.28585199205497708</v>
@@ -44924,7 +46302,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C92" s="2">
         <v>0.1937425180074516</v>
@@ -44936,7 +46314,7 @@
         <v>4.144660945023376</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G92" s="2">
         <v>0.28585199205497708</v>
@@ -44953,7 +46331,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C93" s="2">
         <v>0.19404551285483851</v>
@@ -44982,7 +46360,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C94" s="2">
         <v>0.19404551285483851</v>
@@ -45011,7 +46389,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C95" s="2">
         <v>0.20442401993198461</v>
@@ -45040,7 +46418,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C96" s="2">
         <v>0.20442401993198461</v>
@@ -45052,7 +46430,7 @@
         <v>7.1339581751644507</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G96" s="2">
         <v>0.29173011177793629</v>
@@ -45069,7 +46447,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C97" s="2">
         <v>0.20442401993198461</v>
@@ -45098,7 +46476,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C98" s="2">
         <v>0.20785408138648881</v>
@@ -45139,7 +46517,7 @@
         <v>2.6978969441560912</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G99" s="2">
         <v>0.2948767829534783</v>
@@ -45156,7 +46534,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C100" s="2">
         <v>0.22812963437579509</v>
@@ -45185,7 +46563,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C101" s="2">
         <v>0.23785847739985991</v>
@@ -45197,7 +46575,7 @@
         <v>3.1476150950696851</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G101" s="2">
         <v>0.32586611403780807</v>
@@ -45284,7 +46662,7 @@
         <v>2.6947692818628641</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G104" s="2">
         <v>0.35238393522846101</v>
@@ -45313,7 +46691,7 @@
         <v>1.9167467826626829</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G105" s="2">
         <v>0.35551294074058931</v>
@@ -45342,7 +46720,7 @@
         <v>4.1459144787075024</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G106" s="2">
         <v>0.35680809721623707</v>
@@ -45359,7 +46737,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C107" s="2">
         <v>0.28592879723327402</v>
@@ -45400,7 +46778,7 @@
         <v>1.829655257091185</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G108" s="2">
         <v>0.37447376648808739</v>
@@ -45429,7 +46807,7 @@
         <v>1.9193251207394011</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G109" s="2">
         <v>0.38002768070711163</v>
@@ -45446,7 +46824,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C110" s="2">
         <v>0.31320264045302681</v>
@@ -45487,7 +46865,7 @@
         <v>2.9125902540604929</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G111" s="2">
         <v>0.40476200356074049</v>
@@ -45504,7 +46882,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C112" s="2">
         <v>0.33081053867204607</v>
@@ -45516,7 +46894,7 @@
         <v>2.8040004962252549</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G112" s="2">
         <v>0.40829769187450737</v>
@@ -45533,7 +46911,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C113" s="2">
         <v>0.33634231548380739</v>
@@ -45545,7 +46923,7 @@
         <v>1.8459344613949451</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G113" s="2">
         <v>0.41141872519001449</v>
@@ -45562,7 +46940,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C114" s="2">
         <v>0.34514237730610492</v>
@@ -45574,7 +46952,7 @@
         <v>2.5568575019215598</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G114" s="2">
         <v>0.41844695301713608</v>
@@ -45591,7 +46969,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C115" s="2">
         <v>0.364698585699192</v>
@@ -45603,7 +46981,7 @@
         <v>2.2604107705817391</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G115" s="2">
         <v>0.43827812491920443</v>
@@ -45620,7 +46998,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C116" s="2">
         <v>0.37290206126650138</v>
@@ -45649,7 +47027,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C117" s="2">
         <v>0.38138451459074429</v>
@@ -45661,7 +47039,7 @@
         <v>1.475569118820657</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G117" s="2">
         <v>0.45042826292182742</v>
@@ -45690,7 +47068,7 @@
         <v>1.743250157166395</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G118" s="2">
         <v>0.47687389985868728</v>
@@ -45707,7 +47085,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C119" s="2">
         <v>0.41744887800893699</v>
@@ -45719,7 +47097,7 @@
         <v>1.640266530504018</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G119" s="2">
         <v>0.48466522277308788</v>
@@ -45736,7 +47114,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C120" s="2">
         <v>0.46120894709888671</v>
@@ -45765,7 +47143,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C121" s="2">
         <v>0.46354242803422679</v>
@@ -45835,7 +47213,7 @@
         <v>0.81470489920023581</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G123" s="2">
         <v>0.56691211340354164</v>
@@ -45852,7 +47230,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C124" s="2">
         <v>0.52703490467675207</v>
@@ -45910,7 +47288,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C126" s="2">
         <v>0.55882389185199588</v>
@@ -45951,7 +47329,7 @@
         <v>0.56084021429905051</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="G127" s="2">
         <v>0.6176916522767445</v>
@@ -45997,7 +47375,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C129" s="2">
         <v>0.60431573798652471</v>
@@ -46067,7 +47445,7 @@
         <v>0.4037533236295261</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G131" s="2">
         <v>0.6784967824532524</v>
@@ -46084,7 +47462,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C132" s="2">
         <v>0.68044979402248951</v>
@@ -46113,7 +47491,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C133" s="2">
         <v>0.69007133982371049</v>
@@ -46183,7 +47561,7 @@
         <v>0.21574245880214771</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G135" s="2">
         <v>0.76212639433795237</v>
@@ -46291,7 +47669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
@@ -46340,7 +47718,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C2" s="2">
         <v>4.9904406959516596E-3</v>
@@ -46352,7 +47730,7 @@
         <v>1393.1238894809451</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G2" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46369,7 +47747,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C3" s="2">
         <v>5.9856908667451714E-3</v>
@@ -46381,7 +47759,7 @@
         <v>1076.207480884623</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G3" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46398,7 +47776,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C4" s="2">
         <v>5.9856908667451714E-3</v>
@@ -46410,7 +47788,7 @@
         <v>1076.207480884623</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G4" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46427,7 +47805,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C5" s="2">
         <v>7.9733565142536007E-3</v>
@@ -46439,7 +47817,7 @@
         <v>725.58300813966616</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G5" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46456,7 +47834,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C6" s="2">
         <v>1.1937370540334341E-2</v>
@@ -46468,7 +47846,7 @@
         <v>423.08305184927309</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G6" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46497,7 +47875,7 @@
         <v>315.73003329570571</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G7" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46514,7 +47892,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C8" s="2">
         <v>1.5886337864689629E-2</v>
@@ -46526,7 +47904,7 @@
         <v>290.17872107239242</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G8" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46543,7 +47921,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C9" s="2">
         <v>1.5886337864689629E-2</v>
@@ -46555,7 +47933,7 @@
         <v>290.17872107239242</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G9" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46572,7 +47950,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="C10" s="2">
         <v>1.687123481727236E-2</v>
@@ -46584,7 +47962,7 @@
         <v>268.07877156039848</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G10" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46601,7 +47979,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C11" s="2">
         <v>1.687123481727236E-2</v>
@@ -46613,7 +47991,7 @@
         <v>268.07877156039848</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G11" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46630,7 +48008,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C12" s="2">
         <v>1.687123481727236E-2</v>
@@ -46642,7 +48020,7 @@
         <v>268.07877156039848</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G12" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46659,7 +48037,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C13" s="2">
         <v>1.785519547647043E-2</v>
@@ -46671,7 +48049,7 @@
         <v>248.79341471282049</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G13" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46688,7 +48066,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C14" s="2">
         <v>1.785519547647043E-2</v>
@@ -46700,7 +48078,7 @@
         <v>248.79341471282049</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G14" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46729,7 +48107,7 @@
         <v>248.79341471282049</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G15" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46746,7 +48124,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C16" s="2">
         <v>1.785519547647043E-2</v>
@@ -46758,7 +48136,7 @@
         <v>248.79341471282049</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G16" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46775,7 +48153,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C17" s="2">
         <v>1.883822067201427E-2</v>
@@ -46787,7 +48165,7 @@
         <v>231.83163218032681</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G17" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46816,7 +48194,7 @@
         <v>203.42032915152689</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G18" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46845,7 +48223,7 @@
         <v>203.42032915152689</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G19" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46862,7 +48240,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C20" s="2">
         <v>2.3739343866497249E-2</v>
@@ -46874,7 +48252,7 @@
         <v>170.82742298431501</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G20" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46903,7 +48281,7 @@
         <v>170.82742298431501</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G21" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46920,7 +48298,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C22" s="2">
         <v>2.3739343866497249E-2</v>
@@ -46932,7 +48310,7 @@
         <v>170.82742298431501</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G22" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46961,7 +48339,7 @@
         <v>161.93563879493831</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G23" s="2">
         <v>9.4419546999617326E-2</v>
@@ -46978,7 +48356,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C24" s="2">
         <v>2.4716773778492719E-2</v>
@@ -46990,7 +48368,7 @@
         <v>161.93563879493831</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G24" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47007,7 +48385,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C25" s="2">
         <v>2.4716773778492719E-2</v>
@@ -47019,7 +48397,7 @@
         <v>161.93563879493831</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G25" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47036,7 +48414,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C26" s="2">
         <v>2.5693274055310831E-2</v>
@@ -47048,7 +48426,7 @@
         <v>153.82263569148481</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G26" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47065,7 +48443,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C27" s="2">
         <v>2.5693274055310831E-2</v>
@@ -47077,7 +48455,7 @@
         <v>153.82263569148481</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G27" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47094,7 +48472,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C28" s="2">
         <v>2.666884553614584E-2</v>
@@ -47106,7 +48484,7 @@
         <v>146.39366123411941</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G28" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47123,7 +48501,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C29" s="2">
         <v>2.666884553614584E-2</v>
@@ -47135,7 +48513,7 @@
         <v>146.39366123411941</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G29" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47152,7 +48530,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C30" s="2">
         <v>2.8617205427454839E-2</v>
@@ -47164,7 +48542,7 @@
         <v>133.2788782141628</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G30" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47181,7 +48559,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C31" s="2">
         <v>2.958999550324173E-2</v>
@@ -47193,7 +48571,7 @@
         <v>127.4662135417699</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G31" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47210,7 +48588,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C32" s="2">
         <v>3.056186010741847E-2</v>
@@ -47222,7 +48600,7 @@
         <v>122.0800857201385</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G32" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47239,7 +48617,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C33" s="2">
         <v>3.056186010741847E-2</v>
@@ -47251,7 +48629,7 @@
         <v>122.0800857201385</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G33" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47280,7 +48658,7 @@
         <v>117.07681999296599</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G34" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47297,7 +48675,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C35" s="2">
         <v>3.1532800075838918E-2</v>
@@ -47309,7 +48687,7 @@
         <v>117.07681999296599</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G35" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47326,7 +48704,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C36" s="2">
         <v>3.1532800075838918E-2</v>
@@ -47338,7 +48716,7 @@
         <v>117.07681999296599</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G36" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47355,7 +48733,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C37" s="2">
         <v>3.1532800075838918E-2</v>
@@ -47367,7 +48745,7 @@
         <v>117.07681999296599</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G37" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47396,7 +48774,7 @@
         <v>112.41841533087531</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G38" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47425,7 +48803,7 @@
         <v>112.41841533087531</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G39" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47442,7 +48820,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="C40" s="2">
         <v>3.3471909401101153E-2</v>
@@ -47454,7 +48832,7 @@
         <v>108.07165990908111</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G40" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47471,7 +48849,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C41" s="2">
         <v>3.3471909401101153E-2</v>
@@ -47483,7 +48861,7 @@
         <v>108.07165990908111</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G41" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47500,7 +48878,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="C42" s="2">
         <v>3.4440080422487911E-2</v>
@@ -47512,7 +48890,7 @@
         <v>104.0074062465651</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G42" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47529,7 +48907,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C43" s="2">
         <v>3.4440080422487911E-2</v>
@@ -47541,7 +48919,7 @@
         <v>104.0074062465651</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G43" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47558,7 +48936,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C44" s="2">
         <v>3.4440080422487911E-2</v>
@@ -47570,7 +48948,7 @@
         <v>104.0074062465651</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G44" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47599,7 +48977,7 @@
         <v>24.983384533520809</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G45" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47616,7 +48994,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C46" s="2">
         <v>3.5407330124856501E-2</v>
@@ -47628,7 +49006,7 @@
         <v>100.1999733673225</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G46" s="2">
         <v>9.4419546999617326E-2</v>
@@ -47645,7 +49023,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C47" s="2">
         <v>3.6373659329280619E-2</v>
@@ -47657,7 +49035,7 @@
         <v>96.626650934082932</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G47" s="2">
         <v>9.4887806945949449E-2</v>
@@ -47674,7 +49052,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C48" s="2">
         <v>3.8303559574870347E-2</v>
@@ -47686,7 +49064,7 @@
         <v>90.103934396780772</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G48" s="2">
         <v>9.5758898937175874E-2</v>
@@ -47703,7 +49081,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C49" s="2">
         <v>3.8303559574870347E-2</v>
@@ -47715,7 +49093,7 @@
         <v>90.103934396780772</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G49" s="2">
         <v>9.5758898937175874E-2</v>
@@ -47732,7 +49110,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C50" s="2">
         <v>4.0229787776673652E-2</v>
@@ -47744,7 +49122,7 @@
         <v>84.302845409999165</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G50" s="2">
         <v>9.8521929248996679E-2</v>
@@ -47761,7 +49139,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="C51" s="2">
         <v>4.2152350529806842E-2</v>
@@ -47773,7 +49151,7 @@
         <v>79.114004743950233</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G51" s="2">
         <v>9.9182001246604326E-2</v>
@@ -47802,7 +49180,7 @@
         <v>79.114004743950233</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G52" s="2">
         <v>9.9182001246604326E-2</v>
@@ -47819,7 +49197,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C53" s="2">
         <v>4.3112259429605372E-2</v>
@@ -47831,7 +49209,7 @@
         <v>76.720794246550341</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G53" s="2">
         <v>9.9489829452935469E-2</v>
@@ -47848,7 +49226,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C54" s="2">
         <v>4.6942764384003313E-2</v>
@@ -47860,7 +49238,7 @@
         <v>68.277248167223973</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G54" s="2">
         <v>0.102638811577324</v>
@@ -47889,7 +49267,7 @@
         <v>68.277248167223973</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G55" s="2">
         <v>0.102638811577324</v>
@@ -47918,7 +49296,7 @@
         <v>66.411133335479931</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G56" s="2">
         <v>0.102638811577324</v>
@@ -47947,7 +49325,7 @@
         <v>66.411133335479931</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G57" s="2">
         <v>0.102638811577324</v>
@@ -47976,7 +49354,7 @@
         <v>61.302185054186019</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G58" s="2">
         <v>0.1032380333624769</v>
@@ -47993,7 +49371,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C59" s="2">
         <v>5.0758699736551158E-2</v>
@@ -48005,7 +49383,7 @@
         <v>61.302185054186019</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G59" s="2">
         <v>0.1032380333624769</v>
@@ -48034,7 +49412,7 @@
         <v>61.302185054186019</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G60" s="2">
         <v>0.1032380333624769</v>
@@ -48051,7 +49429,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C61" s="2">
         <v>5.4560117949919239E-2</v>
@@ -48063,7 +49441,7 @@
         <v>55.45541451142644</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G61" s="2">
         <v>0.1056002282901663</v>
@@ -48080,7 +49458,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C62" s="2">
         <v>5.4560117949919239E-2</v>
@@ -48092,7 +49470,7 @@
         <v>55.45541451142644</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G62" s="2">
         <v>0.1056002282901663</v>
@@ -48121,7 +49499,7 @@
         <v>55.45541451142644</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G63" s="2">
         <v>0.1056002282901663</v>
@@ -48138,7 +49516,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C64" s="2">
         <v>5.645539946213541E-2</v>
@@ -48150,7 +49528,7 @@
         <v>52.876053017428852</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G64" s="2">
         <v>0.10753409421359129</v>
@@ -48167,7 +49545,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C65" s="2">
         <v>6.0235139919036562E-2</v>
@@ -48179,7 +49557,7 @@
         <v>48.285088954299518</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G65" s="2">
         <v>0.10810371618501841</v>
@@ -48196,7 +49574,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C66" s="2">
         <v>6.11778250716139E-2</v>
@@ -48208,7 +49586,7 @@
         <v>47.241344847929923</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G66" s="2">
         <v>0.10810371618501841</v>
@@ -48225,7 +49603,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C67" s="2">
         <v>6.2119611868771712E-2</v>
@@ -48237,7 +49615,7 @@
         <v>46.234953227479359</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G67" s="2">
         <v>0.10810371618501841</v>
@@ -48266,7 +49644,7 @@
         <v>46.234953227479359</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G68" s="2">
         <v>0.10810371618501841</v>
@@ -48295,7 +49673,7 @@
         <v>46.234953227479359</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G69" s="2">
         <v>0.10810371618501841</v>
@@ -48324,7 +49702,7 @@
         <v>45.264034597395927</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G70" s="2">
         <v>0.10810371618501841</v>
@@ -48341,7 +49719,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C71" s="2">
         <v>6.3060501107927408E-2</v>
@@ -48353,7 +49731,7 @@
         <v>45.264034597395927</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G71" s="2">
         <v>0.10810371618501841</v>
@@ -48382,7 +49760,7 @@
         <v>43.421696050712747</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G72" s="2">
         <v>0.1097570538316152</v>
@@ -48411,7 +49789,7 @@
         <v>41.70155664670343</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G73" s="2">
         <v>0.1113584979339541</v>
@@ -48440,7 +49818,7 @@
         <v>40.883745286331873</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G74" s="2">
         <v>0.1113723491391625</v>
@@ -48469,7 +49847,7 @@
         <v>40.092375405172049</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G75" s="2">
         <v>0.111384378341299</v>
@@ -48498,7 +49876,7 @@
         <v>37.865241152955647</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G76" s="2">
         <v>0.1143811967092578</v>
@@ -48527,7 +49905,7 @@
         <v>35.836765011855803</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G77" s="2">
         <v>0.1157088488779707</v>
@@ -48556,7 +49934,7 @@
         <v>35.836765011855803</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G78" s="2">
         <v>0.1157088488779707</v>
@@ -48573,7 +49951,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C79" s="2">
         <v>7.5210751770680942E-2</v>
@@ -48585,7 +49963,7 @@
         <v>35.20043603994484</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G79" s="2">
         <v>0.1157088488779707</v>
@@ -48614,7 +49992,7 @@
         <v>30.22444243789128</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G80" s="2">
         <v>0.1266826261267992</v>
@@ -48643,7 +50021,7 @@
         <v>29.743650582678399</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G81" s="2">
         <v>0.1266826261267992</v>
@@ -48660,7 +50038,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C82" s="2">
         <v>9.6341528061817422E-2</v>
@@ -48672,7 +50050,7 @@
         <v>24.482280861784059</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G82" s="2">
         <v>0.14098760204168401</v>
@@ -48701,7 +50079,7 @@
         <v>24.482280861784059</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G83" s="2">
         <v>0.14098760204168401</v>
@@ -48730,7 +50108,7 @@
         <v>23.164111223677509</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G84" s="2">
         <v>0.14453393061374731</v>
@@ -48759,7 +50137,7 @@
         <v>22.547826080103849</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G85" s="2">
         <v>0.1453971378431031</v>
@@ -48788,7 +50166,7 @@
         <v>20.077893566776311</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G86" s="2">
         <v>0.15511690841890921</v>
@@ -48817,7 +50195,7 @@
         <v>18.665164408273089</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G87" s="2">
         <v>0.1607910148411362</v>
@@ -48834,7 +50212,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C88" s="2">
         <v>0.1223313401018362</v>
@@ -48846,7 +50224,7 @@
         <v>17.01647816544881</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G88" s="2">
         <v>0.16802011304717249</v>
@@ -48875,7 +50253,7 @@
         <v>16.826905390046878</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G89" s="2">
         <v>0.16802011304717249</v>
@@ -48904,7 +50282,7 @@
         <v>15.42474638560949</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G90" s="2">
         <v>0.17406924148704159</v>
@@ -48933,7 +50311,7 @@
         <v>15.262657737297211</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G91" s="2">
         <v>0.17406924148704159</v>
@@ -48962,7 +50340,7 @@
         <v>15.10326978018187</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G92" s="2">
         <v>0.17406924148704159</v>
@@ -48979,7 +50357,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C93" s="2">
         <v>0.13810408360894219</v>
@@ -48991,7 +50369,7 @@
         <v>14.058122135286419</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G93" s="2">
         <v>0.18013576122905511</v>
@@ -49020,7 +50398,7 @@
         <v>11.321785872550061</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G94" s="2">
         <v>0.20369872382200441</v>
@@ -49049,7 +50427,7 @@
         <v>5.1415399407555116</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G95" s="2">
         <v>0.21533359146077879</v>
@@ -49078,7 +50456,7 @@
         <v>9.0481320499582178</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G96" s="2">
         <v>0.22802100472472661</v>
@@ -49107,7 +50485,7 @@
         <v>8.0182989208320059</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G97" s="2">
         <v>0.24208068516953479</v>
@@ -49136,7 +50514,7 @@
         <v>7.1092586234896329</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G98" s="2">
         <v>0.25659528690758487</v>
@@ -49153,7 +50531,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C99" s="2">
         <v>0.21460344868668321</v>
@@ -49165,7 +50543,7 @@
         <v>6.690305231712002</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G99" s="2">
         <v>0.2627797330857346</v>
@@ -49194,7 +50572,7 @@
         <v>6.1482982287814716</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G100" s="2">
         <v>0.27257960603933051</v>
@@ -49223,7 +50601,7 @@
         <v>5.4029994711773268</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G101" s="2">
         <v>0.28944784721068662</v>
@@ -49252,7 +50630,7 @@
         <v>5.0364516463716198</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G102" s="2">
         <v>0.29749279012330609</v>
@@ -49281,7 +50659,7 @@
         <v>4.5774834421843007</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G103" s="2">
         <v>0.30966913320259393</v>
@@ -49310,7 +50688,7 @@
         <v>4.4063785588444491</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G104" s="2">
         <v>0.31274613173803512</v>
@@ -49339,7 +50717,7 @@
         <v>3.986846360254956</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G105" s="2">
         <v>0.32588872025554633</v>
@@ -49368,7 +50746,7 @@
         <v>3.8469982589882918</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G106" s="2">
         <v>0.32860463775342652</v>
@@ -49397,7 +50775,7 @@
         <v>3.2753548957624319</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G107" s="2">
         <v>0.35216158932180019</v>
@@ -49426,7 +50804,7 @@
         <v>3.0978383465243078</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G108" s="2">
         <v>0.35826598820865391</v>
@@ -49455,7 +50833,7 @@
         <v>2.84391296737124</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G109" s="2">
         <v>0.36946778071912129</v>
@@ -49484,7 +50862,7 @@
         <v>2.7339587829503089</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G110" s="2">
         <v>0.37280056816735802</v>
@@ -49513,7 +50891,7 @@
         <v>2.1772178537431879</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G111" s="2">
         <v>0.40887840286562899</v>
@@ -49542,7 +50920,7 @@
         <v>2.0065248338342778</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G112" s="2">
         <v>0.41944845660870961</v>
@@ -49571,7 +50949,7 @@
         <v>1.305377370352319</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G113" s="2">
         <v>0.41944845660870961</v>
@@ -49600,7 +50978,7 @@
         <v>1.9245059023451441</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G114" s="2">
         <v>0.41944845660870961</v>
@@ -49629,7 +51007,7 @@
         <v>1.7293954722113729</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G115" s="2">
         <v>0.43445157305454601</v>
@@ -49658,7 +51036,7 @@
         <v>1.5991548418907231</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G116" s="2">
         <v>0.44437787741506618</v>
@@ -49687,7 +51065,7 @@
         <v>0.55557734811086368</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G117" s="2">
         <v>0.62620440032838021</v>
@@ -49716,7 +51094,7 @@
         <v>0.50302298684399682</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G118" s="2">
         <v>0.63748850839609972</v>
@@ -49745,7 +51123,7 @@
         <v>0.4182004512882278</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G119" s="2">
         <v>0.66204340875144163</v>
@@ -49774,7 +51152,7 @@
         <v>0.36681098801171852</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G120" s="2">
         <v>0.66968273243784016</v>
@@ -49803,7 +51181,7 @@
         <v>0.2928540731512142</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G121" s="2">
         <v>0.70477743629051304</v>
@@ -49873,7 +51251,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C2" s="2">
         <v>8.9657734963174245E-3</v>
@@ -49885,7 +51263,7 @@
         <v>619.43958142440499</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G2" s="2">
         <v>7.2623258810009708E-2</v>
@@ -49902,7 +51280,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C3" s="2">
         <v>1.094777970285598E-2</v>
@@ -49914,7 +51292,7 @@
         <v>474.5101770765117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G3" s="2">
         <v>7.2623258810009708E-2</v>
@@ -49931,7 +51309,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="C4" s="2">
         <v>1.094777970285598E-2</v>
@@ -49943,7 +51321,7 @@
         <v>474.5101770765117</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G4" s="2">
         <v>7.2623258810009708E-2</v>
@@ -49960,7 +51338,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C5" s="2">
         <v>1.1937370540334341E-2</v>
@@ -49972,7 +51350,7 @@
         <v>423.08305184927309</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G5" s="2">
         <v>7.2623258810009708E-2</v>
@@ -49989,7 +51367,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="C6" s="2">
         <v>1.292602095289387E-2</v>
@@ -50001,7 +51379,7 @@
         <v>380.83817987374289</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G6" s="2">
         <v>7.2623258810009708E-2</v>
@@ -50018,7 +51396,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C7" s="2">
         <v>1.3913731760820031E-2</v>
@@ -50030,7 +51408,7 @@
         <v>345.57291333057788</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G7" s="2">
         <v>7.2623258810009708E-2</v>
@@ -50047,7 +51425,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C8" s="2">
         <v>1.5886337864689629E-2</v>
@@ -50059,7 +51437,7 @@
         <v>290.17872107239242</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G8" s="2">
         <v>7.2623258810009708E-2</v>
@@ -50088,7 +51466,7 @@
         <v>31.28177863137438</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G9" s="2">
         <v>8.8459164954386382E-2</v>
@@ -50117,7 +51495,7 @@
         <v>146.39366123411941</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G10" s="2">
         <v>8.8459164954386382E-2</v>
@@ -50146,7 +51524,7 @@
         <v>139.5685145543998</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G11" s="2">
         <v>8.8459164954386382E-2</v>
@@ -50175,7 +51553,7 @@
         <v>8.9612570059943391</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G12" s="2">
         <v>0.3004925908985927</v>
@@ -50192,7 +51570,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C13" s="2">
         <v>0.13636494690643919</v>
@@ -50204,7 +51582,7 @@
         <v>14.344704787788981</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G13" s="2">
         <v>0.36363985841717122</v>
@@ -50233,7 +51611,7 @@
         <v>8.1368632215400307</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G14" s="2">
         <v>0.43606447996462738</v>
@@ -50262,7 +51640,7 @@
         <v>7.0127691094281088</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G15" s="2">
         <v>0.43606447996462738</v>
@@ -50279,7 +51657,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C16" s="2">
         <v>0.23269478121018139</v>
@@ -50291,7 +51669,7 @@
         <v>5.7752890573438442</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G16" s="2">
         <v>0.43606447996462738</v>
@@ -50308,7 +51686,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C17" s="2">
         <v>0.23812178632954009</v>
@@ -50320,7 +51698,7 @@
         <v>5.5340937924214204</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G17" s="2">
         <v>0.43606447996462738</v>
@@ -50349,7 +51727,7 @@
         <v>5.2765050517403509</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G18" s="2">
         <v>0.43606447996462738</v>
@@ -50378,7 +51756,7 @@
         <v>4.5029694239166496</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G19" s="2">
         <v>0.43606447996462738</v>
@@ -50407,7 +51785,7 @@
         <v>3.9060384803218779</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G20" s="2">
         <v>0.43606447996462738</v>
@@ -50436,7 +51814,7 @@
         <v>3.8469982589882918</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G21" s="2">
         <v>0.43606447996462738</v>
@@ -50465,7 +51843,7 @@
         <v>3.695795693380223</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G22" s="2">
         <v>0.43606447996462738</v>
@@ -50494,7 +51872,7 @@
         <v>2.076365943945683</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G23" s="2">
         <v>0.43606447996462738</v>
@@ -50523,7 +51901,7 @@
         <v>2.076365943945683</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G24" s="2">
         <v>0.43606447996462738</v>
@@ -50552,7 +51930,7 @@
         <v>2.9470442283819511</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G25" s="2">
         <v>0.43606447996462738</v>
@@ -50581,7 +51959,7 @@
         <v>2.212021204832705</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G26" s="2">
         <v>0.47646565770802912</v>
@@ -50610,7 +51988,7 @@
         <v>1.4034988517944429</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G27" s="2">
         <v>0.48341681195226582</v>
@@ -50639,7 +52017,7 @@
         <v>1.7803784122729871</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G28" s="2">
         <v>0.48341681195226582</v>
@@ -50668,7 +52046,7 @@
         <v>1.1349711831472591</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G29" s="2">
         <v>0.55022535975138465</v>
@@ -50697,7 +52075,7 @@
         <v>0.95818023854257539</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G30" s="2">
         <v>0.55022535975138465</v>
@@ -50726,7 +52104,7 @@
         <v>0.94421646102673817</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G31" s="2">
         <v>0.55022535975138465</v>
@@ -50755,7 +52133,7 @@
         <v>0.71511150719338434</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G32" s="2">
         <v>0.58137754955933918</v>
@@ -50784,7 +52162,7 @@
         <v>0.18418637778885549</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G33" s="2">
         <v>0.76743396255579865</v>

--- a/gene_ontology_analysis_miRNA/GO_results_compartments/compartment_go_analysis.xlsx
+++ b/gene_ontology_analysis_miRNA/GO_results_compartments/compartment_go_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/GO_results_compartments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174CCBC5-A321-6643-9DD1-2B56F4B11336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E1B22B-C6CD-6A4F-A081-0EE76A8EF014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15820" yWindow="500" windowWidth="29740" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartment_A_Biological" sheetId="1" r:id="rId1"/>
@@ -5484,7 +5484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5503,17 +5503,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5829,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P472"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="A349" sqref="A349:F349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20026,16 +20020,16 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="12" t="s">
         <v>1718</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="12" t="s">
         <v>1721</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="12" t="s">
         <v>1719</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="P11" s="13" t="s">
         <v>1722</v>
       </c>
     </row>
@@ -20163,16 +20157,16 @@
       <c r="N15" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="8" t="s">
         <v>1570</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="8" t="s">
         <v>1632</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="8" t="s">
         <v>1633</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="8" t="s">
         <v>1572</v>
       </c>
     </row>
@@ -20213,16 +20207,16 @@
       <c r="N16" s="5" t="s">
         <v>1613</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="9" t="s">
         <v>1634</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="9" t="s">
         <v>1635</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="9" t="s">
         <v>1636</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="9" t="s">
         <v>1637</v>
       </c>
     </row>
@@ -20263,16 +20257,16 @@
       <c r="N17" s="5" t="s">
         <v>1615</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="9" t="s">
         <v>1611</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" s="9" t="s">
         <v>1638</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="R17" s="9" t="s">
         <v>1612</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="9" t="s">
         <v>1639</v>
       </c>
     </row>
@@ -20313,16 +20307,16 @@
       <c r="N18" s="5" t="s">
         <v>1617</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="9" t="s">
         <v>1640</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" s="9" t="s">
         <v>1598</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="9" t="s">
         <v>1641</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="9" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -20363,16 +20357,16 @@
       <c r="N19" s="5" t="s">
         <v>1620</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="9" t="s">
         <v>1642</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="9" t="s">
         <v>1627</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="9" t="s">
         <v>1643</v>
       </c>
     </row>
@@ -20413,16 +20407,16 @@
       <c r="N20" s="5" t="s">
         <v>1623</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="Q20" s="9" t="s">
         <v>1596</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="9" t="s">
         <v>1644</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="9" t="s">
         <v>1645</v>
       </c>
     </row>
@@ -20463,20 +20457,20 @@
       <c r="N21" s="5" t="s">
         <v>1626</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>1604</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="Q21" s="9" t="s">
         <v>1605</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="R21" s="9" t="s">
         <v>1646</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="9" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -20513,16 +20507,16 @@
       <c r="N22" s="5" t="s">
         <v>1628</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="9" t="s">
         <v>1618</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="Q22" s="9" t="s">
         <v>1608</v>
       </c>
-      <c r="R22" s="10" t="s">
+      <c r="R22" s="9" t="s">
         <v>1648</v>
       </c>
-      <c r="S22" s="10" t="s">
+      <c r="S22" s="9" t="s">
         <v>1649</v>
       </c>
     </row>
@@ -20563,16 +20557,16 @@
       <c r="N23" s="5" t="s">
         <v>1631</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="P23" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="Q23" s="9" t="s">
         <v>1650</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="R23" s="9" t="s">
         <v>1651</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="S23" s="9" t="s">
         <v>1576</v>
       </c>
     </row>
@@ -20604,19 +20598,19 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="P24" s="10" t="s">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="9" t="s">
         <v>1591</v>
       </c>
-      <c r="Q24" s="10" t="s">
+      <c r="Q24" s="9" t="s">
         <v>1603</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="R24" s="9" t="s">
         <v>1652</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="S24" s="9" t="s">
         <v>1583</v>
       </c>
     </row>
@@ -20648,19 +20642,19 @@
       <c r="I25" s="2">
         <v>0</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="P25" s="10" t="s">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="P25" s="9" t="s">
         <v>1629</v>
       </c>
-      <c r="Q25" s="10" t="s">
+      <c r="Q25" s="9" t="s">
         <v>1653</v>
       </c>
-      <c r="R25" s="10" t="s">
+      <c r="R25" s="9" t="s">
         <v>1630</v>
       </c>
-      <c r="S25" s="10" t="s">
+      <c r="S25" s="9" t="s">
         <v>1631</v>
       </c>
     </row>
@@ -20692,19 +20686,19 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="P26" s="10" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="P26" s="9" t="s">
         <v>1654</v>
       </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="9" t="s">
         <v>1582</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="9" t="s">
         <v>1655</v>
       </c>
-      <c r="S26" s="10" t="s">
+      <c r="S26" s="9" t="s">
         <v>1600</v>
       </c>
     </row>
@@ -20736,9 +20730,9 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -22837,8 +22831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O700"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184:F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23325,10 +23319,10 @@
       <c r="K16" s="5" t="s">
         <v>1581</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="12" t="s">
         <v>1723</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="12" t="s">
         <v>1724</v>
       </c>
     </row>
@@ -23389,13 +23383,13 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="10" t="s">
         <v>1570</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="10" t="s">
         <v>1632</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="10" t="s">
         <v>1572</v>
       </c>
     </row>
@@ -23807,9 +23801,9 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -23839,9 +23833,9 @@
       <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -23871,9 +23865,9 @@
       <c r="I31" s="2">
         <v>0</v>
       </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -23903,9 +23897,9 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -23935,9 +23929,9 @@
       <c r="I33" s="2">
         <v>0</v>
       </c>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -23967,9 +23961,9 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
@@ -23999,9 +23993,9 @@
       <c r="I35" s="2">
         <v>0</v>
       </c>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -24031,9 +24025,9 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -24063,9 +24057,9 @@
       <c r="I37" s="2">
         <v>0</v>
       </c>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
@@ -24095,9 +24089,9 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
@@ -24127,9 +24121,9 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
@@ -24159,9 +24153,9 @@
       <c r="I40" s="2">
         <v>0</v>
       </c>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
@@ -24191,9 +24185,9 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
@@ -24223,9 +24217,9 @@
       <c r="I42" s="2">
         <v>0</v>
       </c>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -43318,8 +43312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43629,13 +43623,13 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="12" t="s">
         <v>1725</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="12" t="s">
         <v>1726</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="13" t="s">
         <v>1727</v>
       </c>
     </row>
@@ -43726,7 +43720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -43754,29 +43748,29 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>1570</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>1633</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="10" t="s">
         <v>1572</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="11" t="s">
         <v>1570</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="11" t="s">
         <v>1632</v>
       </c>
-      <c r="S14" s="13" t="s">
+      <c r="S14" s="11" t="s">
         <v>1633</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="11" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="192" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -43813,20 +43807,20 @@
       <c r="N15" s="5" t="s">
         <v>1686</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="Q15" s="9" t="s">
         <v>1640</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="R15" s="9" t="s">
         <v>1708</v>
       </c>
-      <c r="S15" s="10" t="s">
+      <c r="S15" s="9" t="s">
         <v>1685</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="T15" s="9" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="224" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -43863,20 +43857,20 @@
       <c r="N16" s="5" t="s">
         <v>1688</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="9" t="s">
         <v>1577</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="9" t="s">
         <v>1656</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="S16" s="9" t="s">
         <v>1690</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="T16" s="9" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="160" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -43913,20 +43907,20 @@
       <c r="N17" s="5" t="s">
         <v>1691</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" s="9" t="s">
         <v>1659</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="R17" s="9" t="s">
         <v>1660</v>
       </c>
-      <c r="S17" s="10" t="s">
+      <c r="S17" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="T17" s="10" t="s">
+      <c r="T17" s="9" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="176" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -43963,20 +43957,20 @@
       <c r="N18" s="5" t="s">
         <v>1694</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="Q18" s="9" t="s">
         <v>1662</v>
       </c>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="9" t="s">
         <v>1663</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="9" t="s">
         <v>1696</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="T18" s="9" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -44013,20 +44007,20 @@
       <c r="N19" s="5" t="s">
         <v>1678</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="9" t="s">
         <v>1604</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="9" t="s">
         <v>1710</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="9" t="s">
         <v>1687</v>
       </c>
-      <c r="T19" s="10" t="s">
+      <c r="T19" s="9" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -44063,20 +44057,20 @@
       <c r="N20" s="5" t="s">
         <v>1699</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="Q20" s="9" t="s">
         <v>1673</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="9" t="s">
         <v>1674</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="9" t="s">
         <v>1693</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="T20" s="9" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -44113,20 +44107,20 @@
       <c r="N21" s="5" t="s">
         <v>1701</v>
       </c>
-      <c r="Q21" s="10" t="s">
+      <c r="Q21" s="9" t="s">
         <v>1590</v>
       </c>
-      <c r="R21" s="10" t="s">
+      <c r="R21" s="9" t="s">
         <v>1665</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="S21" s="9" t="s">
         <v>1713</v>
       </c>
-      <c r="T21" s="10" t="s">
+      <c r="T21" s="9" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -44163,20 +44157,20 @@
       <c r="N22" s="5" t="s">
         <v>1704</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="Q22" s="9" t="s">
         <v>1670</v>
       </c>
-      <c r="R22" s="10" t="s">
+      <c r="R22" s="9" t="s">
         <v>1671</v>
       </c>
-      <c r="S22" s="10" t="s">
+      <c r="S22" s="9" t="s">
         <v>1714</v>
       </c>
-      <c r="T22" s="10" t="s">
+      <c r="T22" s="9" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -44213,16 +44207,16 @@
       <c r="N23" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="Q23" s="9" t="s">
         <v>1679</v>
       </c>
-      <c r="R23" s="10" t="s">
+      <c r="R23" s="9" t="s">
         <v>1680</v>
       </c>
-      <c r="S23" s="10" t="s">
+      <c r="S23" s="9" t="s">
         <v>1698</v>
       </c>
-      <c r="T23" s="10" t="s">
+      <c r="T23" s="9" t="s">
         <v>1715</v>
       </c>
     </row>
@@ -44257,16 +44251,16 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="Q24" s="10" t="s">
+      <c r="Q24" s="9" t="s">
         <v>1682</v>
       </c>
-      <c r="R24" s="10" t="s">
+      <c r="R24" s="9" t="s">
         <v>1683</v>
       </c>
-      <c r="S24" s="10" t="s">
+      <c r="S24" s="9" t="s">
         <v>1716</v>
       </c>
-      <c r="T24" s="10" t="s">
+      <c r="T24" s="9" t="s">
         <v>1717</v>
       </c>
     </row>

--- a/gene_ontology_analysis_miRNA/GO_results_compartments/compartment_go_analysis.xlsx
+++ b/gene_ontology_analysis_miRNA/GO_results_compartments/compartment_go_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/GO_results_compartments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E1B22B-C6CD-6A4F-A081-0EE76A8EF014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9872FCA-7A1E-684B-A228-172AABDB0F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15820" yWindow="500" windowWidth="29740" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7960" yWindow="500" windowWidth="37600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compartment_A_Biological" sheetId="1" r:id="rId1"/>
@@ -5823,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P472"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A349" sqref="A349:F349"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19679,8 +19679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22831,8 +22831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O700"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184:F184"/>
+    <sheetView showGridLines="0" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43312,8 +43312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F9"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47663,8 +47663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView showGridLines="0" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51197,7 +51197,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="A32" sqref="A32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
